--- a/scraping/worldometer_population/data.xlsx
+++ b/scraping/worldometer_population/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\worldometer_population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7CE9FF-8A0F-4B40-954D-D26CC09C0FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A224ED5-84BC-4C86-B863-7FC415D25E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/scraping/worldometer_population/data.xlsx
+++ b/scraping/worldometer_population/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\worldometer_population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A224ED5-84BC-4C86-B863-7FC415D25E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A41D7E-5722-4A5C-8DC4-3C299B89FE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6738,7 +6738,7 @@
   <dimension ref="A1:K234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
